--- a/output/tmp.xlsx
+++ b/output/tmp.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
   <si>
     <t>用例目录</t>
     <phoneticPr fontId="1"/>
@@ -274,6 +274,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>无</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>step1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -282,7 +286,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>功能测试</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>priority-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>庄啸森</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -700,260 +716,439 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15">
+    <row r="2" spans="1:10" ht="15">
       <c r="A2" t="s" s="3">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" t="s" s="3">
+        <v>12</v>
+      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
       </c>
       <c r="I2" t="s" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" t="s" s="3">
         <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15">
+    <row r="4" spans="1:10" ht="15">
       <c r="A4" t="s" s="3">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15">
       <c r="A5" t="s" s="3">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15">
+      <c r="A6" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15">
-      <c r="A6" t="s" s="3">
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15">
+      <c r="A7" t="s" s="3">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H7" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="A7" t="s" s="3">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15">
+    <row r="8" spans="1:10" ht="15">
       <c r="A8" t="s" s="3">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15">
+      <c r="A9" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="A9" t="s" s="3">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15">
+      <c r="A10" t="s" s="3">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H10" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="A10" t="s" s="3">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15">
+    <row r="11" spans="1:10" ht="15">
       <c r="A11" t="s" s="3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15">
+      <c r="A12" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" t="s" s="3">
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15">
+      <c r="A13" t="s" s="3">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G13" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s" s="3">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
+    <row r="14" spans="1:10" ht="15">
       <c r="A14" t="s" s="3">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15">
+      <c r="A15" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s" s="3">
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15">
+      <c r="A16" t="s" s="3">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="J16" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s" s="3">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15">

--- a/output/tmp.xlsx
+++ b/output/tmp.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
   <si>
     <t>用例目录</t>
     <phoneticPr fontId="1"/>
@@ -215,26 +215,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需求</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t>需求ID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -339,14 +320,6 @@
   </si>
   <si>
     <t>tmp-dir3-dir4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tmp-dir3-dir5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tmp-dir3-dir6-dir7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -357,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -384,24 +357,9 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -462,21 +420,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" textRotation="0"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" textRotation="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="general" vertical="center" wrapText="0" textRotation="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="general" vertical="center" wrapText="0" textRotation="0"/>
-      <protection locked="1" hidden="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" textRotation="0"/>
       <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
@@ -670,34 +624,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J97"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" topLeftCell="E1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" view="normal" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" topLeftCell="G1" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AD46" sqref="AD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="14.25" outlineLevelCol="0" outlineLevelRow="0"/>
   <cols>
-    <col min="1" max="1" width="44.45" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="6" width="100" customWidth="1"/>
-    <col min="7" max="10" width="20" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1" style="1"/>
+    <col min="4" max="6" width="100" customWidth="1" style="1"/>
+    <col min="7" max="10" width="20" customWidth="1" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" t="s" s="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="1">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="1">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
       <c r="F1" t="s" s="2">
@@ -716,14 +669,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" t="s" s="3">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
@@ -738,15 +691,15 @@
       <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
@@ -774,8 +727,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -803,8 +756,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" t="s" s="3">
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
@@ -832,8 +785,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" t="s" s="3">
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
@@ -861,8 +814,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="A7" t="s" s="3">
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
@@ -890,8 +843,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="A8" t="s" s="3">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
       <c r="B8" t="s">
@@ -919,8 +872,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="A9" t="s" s="3">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>28</v>
       </c>
       <c r="B9" t="s">
@@ -948,8 +901,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" t="s" s="3">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
       <c r="B10" t="s">
@@ -977,428 +930,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="A11" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="A12" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="A13" t="s" s="3">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="A14" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="A15" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" t="s">
-        <v>22</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="A16" t="s" s="3">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="15">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" ht="15">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" ht="15">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" ht="15">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" ht="15">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" ht="15">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" spans="1:1" ht="15">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:1" ht="15">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="25" spans="1:1" ht="15">
-      <c r="A25" s="3"/>
-    </row>
-    <row r="26" spans="1:1" ht="15">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="27" spans="1:1" ht="15">
-      <c r="A27" s="3"/>
-    </row>
-    <row r="28" spans="1:1" ht="15">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="29" spans="1:1" ht="15">
-      <c r="A29" s="3"/>
-    </row>
-    <row r="30" spans="1:1" ht="15">
-      <c r="A30" s="3"/>
-    </row>
-    <row r="31" spans="1:1" ht="15">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="32" spans="1:1" ht="15">
-      <c r="A32" s="3"/>
-    </row>
-    <row r="33" spans="1:1" ht="15">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" ht="15">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" ht="15">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" ht="15">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" ht="15">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1" ht="15">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1" ht="15">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:1" ht="15">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="41" spans="1:1" ht="15">
-      <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:1" ht="15">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:1" ht="15">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1" ht="15">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:1" ht="15">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:1" ht="15">
-      <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:1" ht="15">
-      <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:1" ht="15">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" ht="15">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" ht="15">
-      <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" ht="15">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" ht="15">
-      <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" ht="15">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" ht="15">
-      <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" ht="15">
-      <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" ht="15">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" ht="15">
-      <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" ht="15">
-      <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" ht="15">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="60" spans="1:1" ht="15">
-      <c r="A60" s="3"/>
-    </row>
-    <row r="61" spans="1:1" ht="15">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" spans="1:1" ht="15">
-      <c r="A62" s="3"/>
-    </row>
-    <row r="63" spans="1:1" ht="15">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" ht="15">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="65" spans="1:1" ht="15">
-      <c r="A65" s="3"/>
-    </row>
-    <row r="66" spans="1:1" ht="15">
-      <c r="A66" s="3"/>
-    </row>
-    <row r="67" spans="1:1" ht="15">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="68" spans="1:1" ht="15">
-      <c r="A68" s="3"/>
-    </row>
-    <row r="69" spans="1:1" ht="15">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:1" ht="15">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:1" ht="15">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" ht="15">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:1" ht="15">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:1" ht="15">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:1" ht="15">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:1" ht="15">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:1" ht="15">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:1" ht="15">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:1" ht="15">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" ht="15">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" ht="15">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" ht="15">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" ht="15">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" ht="15">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" ht="15">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" ht="15">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" ht="15">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" ht="15">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" ht="15">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" ht="15">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" ht="15">
-      <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" ht="15">
-      <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" ht="15">
-      <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" ht="15">
-      <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" ht="15">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" ht="15">
-      <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" ht="15">
-      <c r="A97" s="3"/>
-    </row>
+    <row r="1048576" ht="12.8"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="0" verticalCentered="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" orientation="portrait" fitToHeight="1" fitToWidth="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" orientation="portrait" fitToHeight="1" fitToWidth="1" horizontalDpi="300" verticalDpi="300"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/tmp.xlsx
+++ b/output/tmp.xlsx
@@ -247,7 +247,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>tmp-dir1</t>
+    <t>航天一院-武器部-武器部630交付需求-tmp-dir1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -275,7 +275,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>priority-1</t>
+    <t>高</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -295,7 +295,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>priority-2</t>
+    <t>中</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -311,15 +311,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>priority-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tmp-dir2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>tmp-dir3-dir4</t>
+    <t>低</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航天一院-武器部-武器部630交付需求-tmp-dir2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>航天一院-武器部-武器部630交付需求-tmp-dir3-dir4</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
